--- a/РАБОЧИЙ СТОЛ/машины Останкино КИ.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины Останкино КИ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\30,09,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E840D6-F518-46C5-9CF9-63D43EE62D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75348446-42F9-4DCE-9234-2D8B6BC478D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,20 +556,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F10" si="0">B3-C3-D3-E3</f>
+        <f t="shared" ref="F3:F4" si="0">B3-C3-D3-E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -582,53 +582,53 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F5:F10" si="1">B5-C5-D5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -654,7 +654,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ref="C11:F11" si="1">SUM(C2:C10)</f>
+        <f>SUM(C2:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(D2:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(E2:E10)</f>
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(F2:F10)</f>
         <v>0</v>
       </c>
     </row>
